--- a/glasses/gr/очки браслет GR.xlsx
+++ b/glasses/gr/очки браслет GR.xlsx
@@ -15,6 +15,270 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>ΓΥΑΛΙΑ ΗΛΙΟΥ - ΒΡΑΧΙΟΛΙ</t>
+  </si>
+  <si>
+    <t>ΚΑΙΝΟΤΟΜΙΑ ΓΙΑ ΤΟ 2020!</t>
+  </si>
+  <si>
+    <t>Ιδανικά γυαλιά για δραστήριους ανθρώπους!</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>έκπτωση</t>
+  </si>
+  <si>
+    <t>Αρχική τιμή:</t>
+  </si>
+  <si>
+    <t>€ 138</t>
+  </si>
+  <si>
+    <t>Τιμή σε έκπτωση:</t>
+  </si>
+  <si>
+    <t>€ 69</t>
+  </si>
+  <si>
+    <t>Μέχρι το τέλος της προσφοράς:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| </t>
+  </si>
+  <si>
+    <t>ΩΡΕΣ</t>
+  </si>
+  <si>
+    <t>ΛΕΠΤΑ</t>
+  </si>
+  <si>
+    <t>ΔΕΥΤΕΡΟΛΕΠΤΑ</t>
+  </si>
+  <si>
+    <t>100% προστασία UV</t>
+  </si>
+  <si>
+    <t>Αναδιπλούμενο σχέδιο</t>
+  </si>
+  <si>
+    <t>Έξυπνο design</t>
+  </si>
+  <si>
+    <t>Μπορεί να φορεθεί ως βραχιόλι</t>
+  </si>
+  <si>
+    <t>ΠΑΡΑΓΓΕΙΛΤΕ ΤΩΡΑ</t>
+  </si>
+  <si>
+    <t>ΤΑ ΠΛΕΟΝΕΚΤΗΜΑΤΑ ΤΩΝ ΓΥΑΛΙΩΝ ΗΛΙΟΥ</t>
+  </si>
+  <si>
+    <t>Τα πρώτα γυαλιά ηλίου στον κόσμο που είναι στερεωμένα στο κεφάλι και δεν πέφτουν με απότομη κίνηση.</t>
+  </si>
+  <si>
+    <t>Το υψηλό επίπεδο πόλωσης των φακών παρέχει 100% προστασία των ματιών από την υπεριώδη ακτινοβολία.</t>
+  </si>
+  <si>
+    <t>Η αναδιπλούμενη σχεδίαση σάς επιτρέπει να φοράτε γυαλιά στο χέρι σας με τη μορφή βραχιολιού, μπορούν επίσης να στερεωθούν εύκολα σε οποιαδήποτε σωληνοειδή επιφάνεια, για παράδειγμα, σε τιμόνι ποδηλάτου.</t>
+  </si>
+  <si>
+    <t>Το κλασικό σχήμα των γυαλιών ταιριάζει σε όλους τους τύπους προσώπου.</t>
+  </si>
+  <si>
+    <t>ΑΥΤΗ Η ΤΑΣΗ ΤΟΥ ΚΑΛΟΚΑΙΡΙΟΥ ΕΙΝΑΙ ΤΑ ΓΥΑΛΙΑ - ΒΡΑΧΙΟΛΙ!</t>
+  </si>
+  <si>
+    <t>ΓΥΑΛΙΑ ΗΛΙΟΥ - ΒΡΑΧΙΟΛΙΑ</t>
+  </si>
+  <si>
+    <t>ΠΟΥ ΕΙΝΑΙ ΑΔΥΝΑΤΟΝ ΝΑ ΧΑΘΟΥΝ!</t>
+  </si>
+  <si>
+    <t>Μια νέα γενιά γυαλιών ηλίου -</t>
+  </si>
+  <si>
+    <t>γυαλιά ηλίου - βραχιόλια</t>
+  </si>
+  <si>
+    <t>, που δεν πέφτουν ποτέ από το κεφάλι σας. Το καινοτόμο στυλ των γυαλιών ηλίου - βραχιόλια είναι</t>
+  </si>
+  <si>
+    <t>αποκλειστικά και μοναδικά.</t>
+  </si>
+  <si>
+    <t>Το μυστικό του είναι σε ένα ειδικό πτυσσόμενο σχέδιο με σκελετό σιλικόνης.</t>
+  </si>
+  <si>
+    <t>Μοναδικός</t>
+  </si>
+  <si>
+    <t>αναδιπλούμενο σχέδιο</t>
+  </si>
+  <si>
+    <t>σας επιτρέπει να στερεώσετε τα γυαλιά - βραχιόλι στο χέρι, στη λαβή του ποδηλάτου. Είναι συμπαγείς, διπλώνονται με ευκολία και μπορούν να χωρέσουν στο πορτοφόλι σας ή ακόμα και στην τσέπη σας. Η απουσία αρθρωτών μηχανισμών τους καθιστά ανοσοποιημένους στην άμμο, στη σκόνη και στο νερό.</t>
+  </si>
+  <si>
+    <t>Διαφανής επιφάνεια</t>
+  </si>
+  <si>
+    <t>σκελετού και οι βραχίωνες από σιλικόνη επιτρέπουν στα γυαλιά να στηρίζονται γερά στο κεφάλι ώστε να μπορείτε να τρέχετε, να κολυμπάτε ή να παίζετε βόλεϊ με ασφάλεια.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Βραχίωνες απο σιλικόνη soft touch </t>
+  </si>
+  <si>
+    <t>ανθεκτικό στο αλμυρό νερό και στην υπεριώδη ακτινοβολία.</t>
+  </si>
+  <si>
+    <t>Τα χρώματα θα παραμείνουν πλούσια και ζωντανά για πολλά χρόνια. Επίσης, οι βραχίονες σιλικόνης είναι πολύ εύκαμπτοι, δεν μπορούν να σπάσουν.</t>
+  </si>
+  <si>
+    <t>Πολυκαρβονικοί πολικοί υψηλής ποιότητας φακοί προστατεύουν</t>
+  </si>
+  <si>
+    <t>αξιόπιστα τα μάτια σας</t>
+  </si>
+  <si>
+    <t>από επιβλαβείς ακτίνες UV.</t>
+  </si>
+  <si>
+    <t>Το κλασικό σχήμα</t>
+  </si>
+  <si>
+    <t>του σκελετού των γυαλιών - βραχιόλι ταιριάζει σε όλους τους τύπους προσώπων, είναι κατάλληλη για άνδρες και γυναίκες, αγόρια και κορίτσια.</t>
+  </si>
+  <si>
+    <t>ΝΑ ΕΙΣΤΕ ΠΑΝΤΑ ΣΤΗ ΜΟΔΑ!</t>
+  </si>
+  <si>
+    <t>Στη παραλία</t>
+  </si>
+  <si>
+    <t>Στη πισίνα</t>
+  </si>
+  <si>
+    <t>Στην ύπαιθρο</t>
+  </si>
+  <si>
+    <t>Μαζί με τους φίλους σας</t>
+  </si>
+  <si>
+    <t>ΔΩΣΤΕ ΕΜΦΑΣΗ ΣΤΗΝ ΠΡΟΣΩΠΙΚΟΤΗΤΑ ΣΑΣ</t>
+  </si>
+  <si>
+    <t>ΜΕ ΤΑ ΓΥΑΛΙΑ ΗΛΙΟΥ - ΒΡΑΧΙΟΛΙΑ!</t>
+  </si>
+  <si>
+    <t>ΜΑΥΡΟ</t>
+  </si>
+  <si>
+    <t>ΜΠΛΕ</t>
+  </si>
+  <si>
+    <t>ΠΡΑΣΙΝΟ</t>
+  </si>
+  <si>
+    <t>ΕΝΤΟΝΟ ΡΟΖ</t>
+  </si>
+  <si>
+    <t>ΠΟΡΤΟΚΑΛΙ</t>
+  </si>
+  <si>
+    <t>ΚΟΚΚΙΝΟ</t>
+  </si>
+  <si>
+    <t>ΚΡΙΤΙΚΕΣ ΠΕΛΑΤΩΝ</t>
+  </si>
+  <si>
+    <t>Άννα</t>
+  </si>
+  <si>
+    <t>24 ετών</t>
+  </si>
+  <si>
+    <t>Τα καλύτερα γυαλιά για βόλεϊ που είχα ποτέ μου, έχω αλλάξει αρκετά! Παίρνω μέρος σε διαγωνισμούς και πέφτω πολύ στην άμμο, και τα γυαλιά παραμένουν στο κεφάλι μου !!!! Δεν τα χάνω πουθενά. Τώρα δεν μπορώ να ζήσω χωρίς αυτά !!!</t>
+  </si>
+  <si>
+    <t>Γεώργιος</t>
+  </si>
+  <si>
+    <t>22 ετών</t>
+  </si>
+  <si>
+    <t>Αυτά τα γυαλιά είναι απλά Α κατηγορία! Όταν τα είδα, αποφάσισα αμέσως να τα παραγγείλω. Τα παρέλαβα πολύ γρήγορα! Τα γυαλιά φαίνονται καλά, κάθονται πολύ άνετα στο κεφάλι. Όταν οι φίλοι μου με είδαν να τα κολλάω στον καρπό μου και σοκαρίστηκαν. Τώρα όλοι οι φίλοι μου λένε ότι θέλουν και αυτοί τα ίδια γυαλιά.</t>
+  </si>
+  <si>
+    <t>Χριστίνα</t>
+  </si>
+  <si>
+    <t>29 ετών</t>
+  </si>
+  <si>
+    <t>Ακουλουθώ έναν δραστήριο τρόπο ζωής, κάνω ποδήλατο, περπάτημα στο βουνό, κάνω μπάνιο στη θάλασσα, παίζω βόλεϊ με τους φίλους μου, κάνω θαλάσσια σπορ και αυτά τα γυαλιά είναι απλώς ένα εύρημα για μένα. Δεν πέφτουν από το κεφάλι κατά τη διάρκεια των απότομων κινήσεων, είναι αδύνατο να τα χάσετε γιατί απλά τα φοράτε ως βραχιόλι. Και ο σχεδιασμός είναι απλά τέλειος!!!</t>
+  </si>
+  <si>
+    <t>ΠΩΣ ΝΑ ΚΑΝΕΤΕ ΠΑΡΑΓΓΕΛΙΑ?</t>
+  </si>
+  <si>
+    <t>Βήμα 01</t>
+  </si>
+  <si>
+    <t>ΑΙΤΗΜΑ</t>
+  </si>
+  <si>
+    <t>Αφήστε ένα αίτημα στον ιστοσελίδα μας</t>
+  </si>
+  <si>
+    <t>Βήμα 02</t>
+  </si>
+  <si>
+    <t>ΚΛΗΣΗ</t>
+  </si>
+  <si>
+    <t>Ο εκπρόσωπός μας διευκρινίζει τις λεπτομέρειες της παραγγελίας</t>
+  </si>
+  <si>
+    <t>Βήμα 03</t>
+  </si>
+  <si>
+    <t>ΑΠΟΣΤΟΛΗ</t>
+  </si>
+  <si>
+    <t>Παραδίδουμε την παραγγελία εντός 3-7 εργάσιμων ημερών</t>
+  </si>
+  <si>
+    <t>Βήμα 04</t>
+  </si>
+  <si>
+    <t>ΠΑΡΑΔΟΣΗ</t>
+  </si>
+  <si>
+    <t>Πληρωμή κατα την παραλαβή</t>
+  </si>
+  <si>
+    <t>Τιμή σε προσφορά:</t>
+  </si>
+  <si>
+    <t>ΠΑΡΑΓΓΕΛΙΑ</t>
+  </si>
+  <si>
+    <t>E-OUTLET LLP, 26 Oktovriou, Thessaloniki, 54627 Greece</t>
+  </si>
+  <si>
+    <t>Privacy policy</t>
+  </si>
+  <si>
+    <t>General conditions of sale</t>
+  </si>
+  <si>
+    <t>Legal warning</t>
+  </si>
+  <si>
+    <t>Εισάγετε Ονοματεπώνυμο</t>
+  </si>
+  <si>
+    <t>Εισάγετε Τηλέφωνο</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;!DOCTYPE html&gt;&lt;html lang="en"&gt;&lt;head&gt;
@@ -87,12 +351,6 @@
 			</t>
   </si>
   <si>
-    <t>ΚΑΙΝΟΤΟΜΙΑ ΓΙΑ ΤΟ 2020!</t>
-  </si>
-  <si>
-    <t>Ιδανικά γυαλιά για δραστήριους ανθρώπους!</t>
-  </si>
-  <si>
     <t xml:space="preserve">				форма&lt;/span&gt;&lt;/p&gt;
 					&lt;/div&gt;
 					&lt;div class="builets__item"&gt;&lt;img src="img/buil_4.png" alt style="width: 1.4rem; height: 1.4rem; margin-bottom: 0.46rem;"&gt;
@@ -222,9 +480,6 @@
 			&lt;h2 class="sect5__title"&gt;&lt;span&gt;&lt;span data-translate="55"&gt;Подчеркни свою индивидуальность&lt;/span&gt;&lt;/span&gt;&lt;span data-transl</t>
   </si>
   <si>
-    <t>50%</t>
-  </si>
-  <si>
     <t>ate="56"&gt;с очками-браслетами!&lt;/span&gt;&lt;/h2&gt;
 			&lt;div class="reviews owl-carousel"&gt;
 				&lt;div class="reviews__item reviews__item--owl"&gt;
@@ -286,9 +541,6 @@
 							выглядят, очень комфортно сидят на голове. Когда мои друзья увидели, как я прикрепил их на мое запяст</t>
   </si>
   <si>
-    <t>έκπτωση</t>
-  </si>
-  <si>
     <t>ье, они были
 							шокированы. Теперь все мои друзья говорят мне, что ОНИ тоже хотят такие очки)))&lt;/span&gt;&lt;/p&gt;
 						&lt;/div&gt;
@@ -348,18 +600,6 @@
 						&lt;div class="price__item"&gt;
 							&lt;span&gt;&lt;span data-translate="91"&gt;Старая цена:&lt;/span&gt;&lt;/span&gt;
 							&lt;s&gt;&lt;</t>
-  </si>
-  <si>
-    <t>Αρχική τιμή:</t>
-  </si>
-  <si>
-    <t>€ 138</t>
-  </si>
-  <si>
-    <t>Τιμή σε έκπτωση:</t>
-  </si>
-  <si>
-    <t>€ 69</t>
   </si>
   <si>
     <t>span data-translate="92"&gt;€ 138&lt;/span&gt;&lt;/s&gt;
@@ -433,249 +673,9 @@
 	&lt;script src="js/tim</t>
   </si>
   <si>
-    <t>Μέχρι το τέλος της προσφοράς:</t>
-  </si>
-  <si>
     <t>er.js"&gt;&lt;/script&gt;
 	&lt;script src="js/common.js"&gt;&lt;/script&gt;
 &lt;/body&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">| </t>
-  </si>
-  <si>
-    <t>ΩΡΕΣ</t>
-  </si>
-  <si>
-    <t>ΛΕΠΤΑ</t>
-  </si>
-  <si>
-    <t>ΔΕΥΤΕΡΟΛΕΠΤΑ</t>
-  </si>
-  <si>
-    <t>100% προστασία UV</t>
-  </si>
-  <si>
-    <t>Αναδιπλούμενο σχέδιο</t>
-  </si>
-  <si>
-    <t>Έξυπνο design</t>
-  </si>
-  <si>
-    <t>Μπορεί να φορεθεί ως βραχιόλι</t>
-  </si>
-  <si>
-    <t>ΠΑΡΑΓΓΕΙΛΤΕ ΤΩΡΑ</t>
-  </si>
-  <si>
-    <t>ΤΑ ΠΛΕΟΝΕΚΤΗΜΑΤΑ ΤΩΝ ΓΥΑΛΙΩΝ ΗΛΙΟΥ</t>
-  </si>
-  <si>
-    <t>Τα πρώτα γυαλιά ηλίου στον κόσμο που είναι στερεωμένα στο κεφάλι και δεν πέφτουν με απότομη κίνηση.</t>
-  </si>
-  <si>
-    <t>Το υψηλό επίπεδο πόλωσης των φακών παρέχει 100% προστασία των ματιών από την υπεριώδη ακτινοβολία.</t>
-  </si>
-  <si>
-    <t>Η αναδιπλούμενη σχεδίαση σάς επιτρέπει να φοράτε γυαλιά στο χέρι σας με τη μορφή βραχιολιού, μπορούν επίσης να στερεωθούν εύκολα σε οποιαδήποτε σωληνοειδή επιφάνεια, για παράδειγμα, σε τιμόνι ποδηλάτου.</t>
-  </si>
-  <si>
-    <t>Το κλασικό σχήμα των γυαλιών ταιριάζει σε όλους τους τύπους προσώπου.</t>
-  </si>
-  <si>
-    <t>ΑΥΤΗ Η ΤΑΣΗ ΤΟΥ ΚΑΛΟΚΑΙΡΙΟΥ ΕΙΝΑΙ ΤΑ ΓΥΑΛΙΑ - ΒΡΑΧΙΟΛΙ!</t>
-  </si>
-  <si>
-    <t>ΓΥΑΛΙΑ ΗΛΙΟΥ - ΒΡΑΧΙΟΛΙΑ</t>
-  </si>
-  <si>
-    <t>ΠΟΥ ΕΙΝΑΙ ΑΔΥΝΑΤΟΝ ΝΑ ΧΑΘΟΥΝ!</t>
-  </si>
-  <si>
-    <t>Μια νέα γενιά γυαλιών ηλίου -</t>
-  </si>
-  <si>
-    <t>γυαλιά ηλίου - βραχιόλια</t>
-  </si>
-  <si>
-    <t>, που δεν πέφτουν ποτέ από το κεφάλι σας. Το καινοτόμο στυλ των γυαλιών ηλίου - βραχιόλια είναι</t>
-  </si>
-  <si>
-    <t>αποκλειστικά και μοναδικά.</t>
-  </si>
-  <si>
-    <t>Το μυστικό του είναι σε ένα ειδικό πτυσσόμενο σχέδιο με σκελετό σιλικόνης.</t>
-  </si>
-  <si>
-    <t>Μοναδικός</t>
-  </si>
-  <si>
-    <t>αναδιπλούμενο σχέδιο</t>
-  </si>
-  <si>
-    <t>σας επιτρέπει να στερεώσετε τα γυαλιά - βραχιόλι στο χέρι, στη λαβή του ποδηλάτου. Είναι συμπαγείς, διπλώνονται με ευκολία και μπορούν να χωρέσουν στο πορτοφόλι σας ή ακόμα και στην τσέπη σας. Η απουσία αρθρωτών μηχανισμών τους καθιστά ανοσοποιημένους στην άμμο, στη σκόνη και στο νερό.</t>
-  </si>
-  <si>
-    <t>Διαφανής επιφάνεια</t>
-  </si>
-  <si>
-    <t>σκελετού και οι βραχίωνες από σιλικόνη επιτρέπουν στα γυαλιά να στηρίζονται γερά στο κεφάλι ώστε να μπορείτε να τρέχετε, να κολυμπάτε ή να παίζετε βόλεϊ με ασφάλεια.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Βραχίωνες απο σιλικόνη soft touch </t>
-  </si>
-  <si>
-    <t>ανθεκτικό στο αλμυρό νερό και στην υπεριώδη ακτινοβολία.</t>
-  </si>
-  <si>
-    <t>Τα χρώματα θα παραμείνουν πλούσια και ζωντανά για πολλά χρόνια. Επίσης, οι βραχίονες σιλικόνης είναι πολύ εύκαμπτοι, δεν μπορούν να σπάσουν.</t>
-  </si>
-  <si>
-    <t>Πολυκαρβονικοί πολικοί υψηλής ποιότητας φακοί προστατεύουν</t>
-  </si>
-  <si>
-    <t>αξιόπιστα τα μάτια σας</t>
-  </si>
-  <si>
-    <t>από επιβλαβείς ακτίνες UV.</t>
-  </si>
-  <si>
-    <t>Το κλασικό σχήμα</t>
-  </si>
-  <si>
-    <t>του σκελετού των γυαλιών - βραχιόλι ταιριάζει σε όλους τους τύπους προσώπων, είναι κατάλληλη για άνδρες και γυναίκες, αγόρια και κορίτσια.</t>
-  </si>
-  <si>
-    <t>ΝΑ ΕΙΣΤΕ ΠΑΝΤΑ ΣΤΗ ΜΟΔΑ!</t>
-  </si>
-  <si>
-    <t>Στη παραλία</t>
-  </si>
-  <si>
-    <t>Στη πισίνα</t>
-  </si>
-  <si>
-    <t>Στην ύπαιθρο</t>
-  </si>
-  <si>
-    <t>Μαζί με τους φίλους σας</t>
-  </si>
-  <si>
-    <t>ΔΏΣΤΕ ΕΜΦΑΣΗ ΣΤΗΝ ΠΡΟΣΩΠΙΚΟΤΗΤΑ ΣΑΣ</t>
-  </si>
-  <si>
-    <t>ΜΕ ΤΑ ΓΥΑΛΙΑ ΗΛΙΟΥ - ΒΡΑΧΙΟΛΙΑ!</t>
-  </si>
-  <si>
-    <t>ΜΑΥΡΟ</t>
-  </si>
-  <si>
-    <t>ΜΠΛΕ</t>
-  </si>
-  <si>
-    <t>ΠΡΑΣΙΝΟ</t>
-  </si>
-  <si>
-    <t>ΕΝΤΟΝΟ ΡΟΖ</t>
-  </si>
-  <si>
-    <t>ΠΟΡΤΟΚΑΛΙ</t>
-  </si>
-  <si>
-    <t>ΚΟΚΚΙΝΟ</t>
-  </si>
-  <si>
-    <t>ΚΡΙΤΙΚΕΣ ΠΕΛΑΤΩΝ</t>
-  </si>
-  <si>
-    <t>Άννα</t>
-  </si>
-  <si>
-    <t>24 ετών</t>
-  </si>
-  <si>
-    <t>Τα καλύτερα γυαλιά για βόλεϊ που είχα ποτέ μου, έχω αλλάξει αρκετά! Παίρνω μέρος σε διαγωνισμούς και πέφτω πολύ στην άμμο, και τα γυαλιά παραμένουν στο κεφάλι μου !!!! Δεν τα χάνω πουθενά. Τώρα δεν μπορώ να ζήσω χωρίς αυτά !!!</t>
-  </si>
-  <si>
-    <t>Γεώργιος</t>
-  </si>
-  <si>
-    <t>22 ετών</t>
-  </si>
-  <si>
-    <t>Αυτά τα γυαλιά είναι απλά Α κατηγορία! Όταν τα είδα, αποφάσισα αμέσως να τα παραγγείλω. Τα παρέλαβα πολύ γρήγορα! Τα γυαλιά φαίνονται καλά, κάθονται πολύ άνετα στο κεφάλι. Όταν οι φίλοι μου με είδαν να τα κολλάω στον καρπό μου και σοκαρίστηκαν. Τώρα όλοι οι φίλοι μου λένε ότι θέλουν και αυτοί τα ίδια γυαλιά.</t>
-  </si>
-  <si>
-    <t>Χριστίνα</t>
-  </si>
-  <si>
-    <t>29 ετών</t>
-  </si>
-  <si>
-    <t>Ακουλουθώ έναν δραστήριο τρόπο ζωής, κάνω ποδήλατο, περπάτημα στο βουνό, κάνω μπάνιο στη θάλασσα, παίζω βόλεϊ με τους φίλους μου, κάνω θαλάσσια σπορ και αυτά τα γυαλιά είναι απλώς ένα εύρημα για μένα. Δεν πέφτουν από το κεφάλι κατά τη διάρκεια των απότομων κινήσεων, είναι αδύνατο να τα χάσετε γιατί απλά τα φοράτε ως βραχιόλι. Και ο σχεδιασμός είναι απλά τέλειος!!!</t>
-  </si>
-  <si>
-    <t>ΠΩΣ ΝΑ ΚΑΝΕΤΕ ΠΑΡΑΓΓΕΛΙΑ?</t>
-  </si>
-  <si>
-    <t>Βήμα 01</t>
-  </si>
-  <si>
-    <t>ΑΙΤΗΜΑ</t>
-  </si>
-  <si>
-    <t>Αφήστε ένα αίτημα στον ιστοσελίδα μας</t>
-  </si>
-  <si>
-    <t>Βήμα 02</t>
-  </si>
-  <si>
-    <t>ΚΛΗΣΗ</t>
-  </si>
-  <si>
-    <t>Ο εκπρόσωπός μας διευκρινίζει τις λεπτομέρειες της παραγγελίας</t>
-  </si>
-  <si>
-    <t>Βήμα 03</t>
-  </si>
-  <si>
-    <t>ΑΠΟΣΤΟΛΗ</t>
-  </si>
-  <si>
-    <t>Παραδίδουμε την παραγγελία εντός 3-7 εργάσιμων ημερών</t>
-  </si>
-  <si>
-    <t>Βήμα 04</t>
-  </si>
-  <si>
-    <t>ΠΑΡΑΔΟΣΗ</t>
-  </si>
-  <si>
-    <t>Πληρωμή κατα την παραλαβή</t>
-  </si>
-  <si>
-    <t>Τιμή σε προσφορά:</t>
-  </si>
-  <si>
-    <t>ΠΑΡΑΓΓΕΛΙΑ</t>
-  </si>
-  <si>
-    <t>E-OUTLET LLP, 26 Oktovriou, Thessaloniki, 54627 Greece</t>
-  </si>
-  <si>
-    <t>Privacy policy</t>
-  </si>
-  <si>
-    <t>General conditions of sale</t>
-  </si>
-  <si>
-    <t>Legal warning</t>
-  </si>
-  <si>
-    <t>Εισάγετε Ονοματεπώνυμο</t>
-  </si>
-  <si>
-    <t>Εισάγετε Τηλέφωνο</t>
   </si>
 </sst>
 </file>
@@ -691,10 +691,6 @@
     <font>
       <color rgb="FFFF0000"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
     <font/>
     <font>
       <sz val="12.0"/>
@@ -706,13 +702,23 @@
       <color rgb="FF2B2B2B"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF666666"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -727,25 +733,28 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -973,7 +982,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -982,543 +991,543 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
+      <c r="A13" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
+      <c r="A17" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
+      <c r="A18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
+      <c r="A19" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>24</v>
+      <c r="A20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
+      <c r="A23" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
+      <c r="A24" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
+      <c r="A25" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>30</v>
+      <c r="A26" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3" t="s">
-        <v>53</v>
+      <c r="A51" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
-        <v>54</v>
+      <c r="A52" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3" t="s">
-        <v>55</v>
+      <c r="A53" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>56</v>
+      <c r="A54" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="1" t="s">
-        <v>57</v>
+      <c r="A55" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="3" t="s">
-        <v>76</v>
+      <c r="A74" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="3" t="s">
-        <v>78</v>
+      <c r="A76" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="3" t="s">
-        <v>79</v>
+      <c r="A77" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="3" t="s">
-        <v>81</v>
+      <c r="A79" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3" t="s">
-        <v>82</v>
+      <c r="A80" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="3" t="s">
-        <v>84</v>
+      <c r="A82" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="3" t="s">
-        <v>85</v>
+      <c r="A83" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3" t="s">
-        <v>87</v>
+      <c r="A85" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="4" t="s">
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="3" t="s">
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="3" t="s">
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="4" t="s">
-        <v>17</v>
+      <c r="A97" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="3" t="s">
-        <v>21</v>
+      <c r="A101" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="3" t="s">
-        <v>22</v>
+      <c r="A102" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="3" t="s">
-        <v>23</v>
+      <c r="A103" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="3" t="s">
-        <v>24</v>
+      <c r="A104" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="4" t="s">
-        <v>91</v>
+      <c r="A107" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="4" t="s">
-        <v>92</v>
+      <c r="A108" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="4" t="s">
-        <v>93</v>
+      <c r="A109" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="3" t="s">
-        <v>94</v>
+      <c r="A110" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="3" t="s">
-        <v>95</v>
+      <c r="A111" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
@@ -4201,38 +4210,38 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
+      <c r="A6" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
+      <c r="A7" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
